--- a/lista_contatos_bot_wpp.xlsx
+++ b/lista_contatos_bot_wpp.xlsx
@@ -156,10 +156,10 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
   </cols>
@@ -177,7 +177,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>5512981317988</v>
+        <v>5512990999988</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5547988898191</v>
+        <v>5547999998191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
